--- a/data/trans_dic/Predimed_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8704771776379551</v>
+        <v>0.8817774158566277</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8104841587629286</v>
+        <v>0.8011032719403041</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8641907863605633</v>
+        <v>0.8657578356949588</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9698229306839047</v>
+        <v>0.9671018014641766</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9134218660431496</v>
+        <v>0.9132814369820519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9296021862724971</v>
+        <v>0.9325416976720226</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8390238414149687</v>
+        <v>0.8390238414149686</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8424858353368418</v>
+        <v>0.8424858353368417</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8407776343906335</v>
+        <v>0.8407776343906336</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7890528492754171</v>
+        <v>0.7893097929378077</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8013676860904236</v>
+        <v>0.8025616502520452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8101951290368496</v>
+        <v>0.808534916961663</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8859472275479201</v>
+        <v>0.882163480355556</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8750388123754859</v>
+        <v>0.8765927077193291</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.868024808143218</v>
+        <v>0.8692060588103984</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.8231586882497203</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8205435291712776</v>
+        <v>0.8205435291712775</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7811740486873539</v>
+        <v>0.7801468599806274</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7952251226626788</v>
+        <v>0.7959354011888407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7964714021327882</v>
+        <v>0.7987876969094497</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8502942445511013</v>
+        <v>0.8502503264304185</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8494595620038345</v>
+        <v>0.8487502417591227</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8422661719256664</v>
+        <v>0.8424143449469395</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8242842030121517</v>
+        <v>0.8242842030121516</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.7921590672678187</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7931853159205685</v>
+        <v>0.793175869022661</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7665769544150962</v>
+        <v>0.7675567710487617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7869546683976346</v>
+        <v>0.7877355582731027</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8530758213330679</v>
+        <v>0.8523429222299937</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.814241586969209</v>
+        <v>0.8145080982107384</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.825386856136333</v>
+        <v>0.825345180318234</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8077708850562723</v>
+        <v>0.8077708850562721</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8020205574190113</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7744877147416207</v>
+        <v>0.7737363635136235</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7749024428507847</v>
+        <v>0.7750389159686218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7845493034041666</v>
+        <v>0.7829168334666654</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8398562301841215</v>
+        <v>0.836111949764815</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8249928337961518</v>
+        <v>0.8247920698154448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8223129591949216</v>
+        <v>0.824680117858471</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.7452031702830224</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7424803456035665</v>
+        <v>0.7424803456035668</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6947801770445616</v>
+        <v>0.6996644672389779</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7111794419804314</v>
+        <v>0.7149599856568635</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7160429701430181</v>
+        <v>0.7146721003316444</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7734118652125228</v>
+        <v>0.7752868511958588</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7726946841989948</v>
+        <v>0.7741888918164818</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7665511909036762</v>
+        <v>0.7661311018818594</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.81584492631784</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8245958665381121</v>
+        <v>0.8245958665381119</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.8211096668022889</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7747415759657282</v>
+        <v>0.7765986318372844</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7910672673040148</v>
+        <v>0.7943575697886613</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7966547875320562</v>
+        <v>0.7954408184561405</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8525761594710025</v>
+        <v>0.8571002449861224</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8485117334838653</v>
+        <v>0.8523412498547517</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.841803961299324</v>
+        <v>0.8437170273577346</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8237950477475849</v>
+        <v>0.8237950477475852</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.8108567051826348</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8087175592093095</v>
+        <v>0.807156038308494</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.797847908864095</v>
+        <v>0.7983851629440524</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8076219621890268</v>
+        <v>0.807555927287214</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8380181547355652</v>
+        <v>0.8382317545281305</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8217666624163923</v>
+        <v>0.8219756691606278</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8260815349770394</v>
+        <v>0.8259318902956774</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>308166</v>
+        <v>312167</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>264685</v>
+        <v>261622</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>588166</v>
+        <v>589232</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>343337</v>
+        <v>342373</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>298303</v>
+        <v>298257</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>632684</v>
+        <v>634685</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>356796</v>
+        <v>356912</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>372036</v>
+        <v>372590</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>742490</v>
+        <v>740969</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>400610</v>
+        <v>398899</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>406238</v>
+        <v>406959</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>795487</v>
+        <v>796570</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>458590</v>
+        <v>457987</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>470800</v>
+        <v>471221</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>939108</v>
+        <v>941839</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>499167</v>
+        <v>499141</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>502909</v>
+        <v>502489</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>993104</v>
+        <v>993279</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>523556</v>
+        <v>523550</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>541410</v>
+        <v>542102</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1075245</v>
+        <v>1076312</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>563088</v>
+        <v>562604</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>575074</v>
+        <v>575262</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1127757</v>
+        <v>1127700</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>440017</v>
+        <v>439591</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>448452</v>
+        <v>448531</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>899769</v>
+        <v>897897</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>477156</v>
+        <v>475029</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>477440</v>
+        <v>477324</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>943079</v>
+        <v>945793</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>261242</v>
+        <v>263079</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>299498</v>
+        <v>301090</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>570782</v>
+        <v>569689</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>290808</v>
+        <v>291513</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>325403</v>
+        <v>326033</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>611044</v>
+        <v>610709</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>216789</v>
+        <v>217309</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>334286</v>
+        <v>335676</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>559567</v>
+        <v>558714</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>238569</v>
+        <v>239835</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>358561</v>
+        <v>360179</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>591280</v>
+        <v>592623</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2650403</v>
+        <v>2645285</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2801686</v>
+        <v>2803573</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5482820</v>
+        <v>5482372</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2746429</v>
+        <v>2747129</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2885678</v>
+        <v>2886412</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5608139</v>
+        <v>5607124</v>
       </c>
     </row>
     <row r="36">
